--- a/Resonancia RLC/resonancia.xlsx
+++ b/Resonancia RLC/resonancia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14b7646f1c6bfe90/Uniandes/Física/Ondas y Fluidos/Lab_OyF/Resonancia RLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{11EC4F34-6744-4262-A76E-C4B5C34498E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD6C7FD-375A-4232-B9B1-25C3652C54FB}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{11EC4F34-6744-4262-A76E-C4B5C34498E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A129B9B-14C5-4608-97D4-043314499D38}"/>
   <bookViews>
     <workbookView xWindow="1452" yWindow="1404" windowWidth="16296" windowHeight="8616" xr2:uid="{0B130809-462A-47C1-9A44-6718EEF0D498}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -458,7 +469,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
